--- a/pagerank/pagerank analysis.xlsx
+++ b/pagerank/pagerank analysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Inlinks" sheetId="1" r:id="rId1"/>
-    <sheet name="pagerank" sheetId="3" r:id="rId2"/>
-    <sheet name="Pagerank+Inlinks" sheetId="2" r:id="rId3"/>
+    <sheet name="top50 PG" sheetId="5" r:id="rId2"/>
+    <sheet name="pagerank" sheetId="3" r:id="rId3"/>
+    <sheet name="Pagerank+Inlinks" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>WT21-B37-76</t>
   </si>
@@ -95,6 +96,165 @@
   </si>
   <si>
     <t>WT13-B06-284</t>
+  </si>
+  <si>
+    <t>WT21-B37-76       0.0026944724781760273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT21-B37-75       0.001533178021209088 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT25-B39-116       0.0014685052052812971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B21-53       0.0013735293888656346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT24-B26-10       0.001276185850759735 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT24-B40-171       0.0012452762576436593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B39-340       0.0012428878048860673 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B37-134       0.0012054244819005868 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT08-B18-400       0.0011447768269601337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT13-B06-284       0.0011365543382272243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT13-B06-273       0.0010549212100999087 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT01-B18-225       0.0009553815601062547 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT04-B27-720       0.0009409600537103004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT24-B26-46       0.000862234748385492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B19-156       0.0008250691219622044 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT04-B30-12       0.0008166223149664438 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT25-B15-307       0.0007972232462113192 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT07-B18-256       0.0007750204954700132 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT24-B40-167       0.0007076173992576065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B03-220       0.0006988730575093209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT18-B31-240       0.0006942227512288096 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B03-227       0.0006853000070830819 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT04-B40-202       0.0006846780486338035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT08-B19-222       0.000649532331584285 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B20-363       0.000639633076018326 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT27-B28-203       0.0006270792708237176 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT13-B39-295       0.0006215364484238102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT13-B15-160       0.0006198583632884113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT12-B30-56       0.0006024566810140588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT10-B02-288       0.0005844499044381472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B36-337       0.0005617086801747583 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT21-B40-37       0.0005471875226793217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT21-B35-155       0.0005456981046151352 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B01-40       0.0005408499350510939 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT08-B08-60       0.0005361202452782419 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT22-B38-403       0.0005335776669280423 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT13-B39-321       0.0005328924098170684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT04-B22-268       0.0005328577609591817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B02-400       0.0005327911844752362 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT18-B14-66       0.0005295571618582645 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT06-B14-69       0.0005191633316159543 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT23-B38-120       0.0005186836520795847 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT06-B35-151       0.0005169273401149341 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT10-B33-300       0.0005167738017093451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B36-323       0.0005158632055334272 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B36-334       0.0005158632055334272 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B36-336       0.0005158632055334272 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT14-B36-335       0.0005158632055334272 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT06-B35-161       0.0005150213795546307 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT27-B20-494       0.0005144781639245658 </t>
+  </si>
+  <si>
+    <t>WT23-B38-87       0.000513812017511829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>Page                           PageRank</t>
   </si>
 </sst>
 </file>
@@ -102,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,20 +293,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -157,6 +327,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B52" totalsRowShown="0">
+  <autoFilter ref="A1:B52"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Number " dataDxfId="1"/>
+    <tableColumn id="2" name="Page                           PageRank" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +731,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,12 +1427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +1442,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
